--- a/PerfomerDuProject/Data/Config.xlsx
+++ b/PerfomerDuProject/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\LinkedIn Projects\ReceiveDocumentsByEmail\PerfomerDuProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\PerfomerDuProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A93538-1C06-411D-BA04-CB94FB75DA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532368CA-1F93-4BFF-A235-363473C72235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21585" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -776,7 +776,7 @@
     <t>Path</t>
   </si>
   <si>
-    <t>C:\Users\DELL\Documents\UiPath\LinkedIn Projects\ReceiveDocumentsByEmail\FilesOutput</t>
+    <t>C:\Users\DELL\Documents\UiPath\LinkedIn Projects\Mail Doc Processor Document Understanding\FilesOutput</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3931,7 +3931,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5113,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5007CE1-A05D-4745-B7EA-4E0BD0A3B111}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="A3:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
